--- a/+Problems/interview.xlsx
+++ b/+Problems/interview.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\591159\Desktop\algo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\591159\Desktop\algo\+Problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="79">
   <si>
     <t> Move Zeroes</t>
   </si>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t>Note</t>
+  </si>
+  <si>
+    <t>Shortest Word Distance</t>
   </si>
 </sst>
 </file>
@@ -654,12 +657,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -798,16 +801,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>56</v>
       </c>
       <c r="G8" t="s">
         <v>56</v>
@@ -817,11 +817,14 @@
       <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>19</v>
+      <c r="B9" t="s">
+        <v>16</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
       </c>
       <c r="G9" t="s">
         <v>56</v>
@@ -832,7 +835,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
@@ -843,16 +846,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>56</v>
       </c>
       <c r="G11" t="s">
         <v>56</v>
@@ -863,7 +863,7 @@
         <v>49</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -880,10 +880,13 @@
         <v>49</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
       </c>
       <c r="G13" t="s">
         <v>56</v>
@@ -891,16 +894,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
+        <v>49</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>56</v>
       </c>
       <c r="G14" t="s">
         <v>56</v>
@@ -911,15 +911,15 @@
         <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
       </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
       <c r="G15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" t="s">
         <v>56</v>
       </c>
     </row>
@@ -928,29 +928,29 @@
         <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
       </c>
       <c r="G16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>59</v>
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
       </c>
-      <c r="D17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>56</v>
       </c>
     </row>
@@ -958,44 +958,44 @@
       <c r="A18" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="4">
-        <v>2</v>
+        <v>68</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
       </c>
       <c r="D19" t="s">
         <v>56</v>
       </c>
-      <c r="G19" t="s">
+      <c r="E19" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C20" s="4">
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" t="s">
         <v>56</v>
       </c>
       <c r="G20" t="s">
@@ -1006,13 +1006,16 @@
       <c r="A21" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>34</v>
+      <c r="B21" t="s">
+        <v>33</v>
       </c>
       <c r="C21" s="4">
         <v>2</v>
       </c>
       <c r="D21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" t="s">
         <v>56</v>
       </c>
       <c r="G21" t="s">
@@ -1021,10 +1024,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C22" s="4">
         <v>2</v>
@@ -1038,13 +1041,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" t="s">
-        <v>17</v>
+        <v>58</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="C23" s="4">
         <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>56</v>
       </c>
       <c r="G23" t="s">
         <v>56</v>
@@ -1052,16 +1058,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>75</v>
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
       </c>
       <c r="C24" s="4">
         <v>2</v>
-      </c>
-      <c r="D24" t="s">
-        <v>56</v>
       </c>
       <c r="G24" t="s">
         <v>56</v>
@@ -1072,15 +1075,12 @@
         <v>67</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C25" s="4">
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" t="s">
         <v>56</v>
       </c>
       <c r="G25" t="s">
@@ -1089,13 +1089,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" t="s">
-        <v>23</v>
+        <v>67</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="C26" s="4">
         <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>56</v>
       </c>
       <c r="E26" t="s">
         <v>56</v>
@@ -1106,32 +1109,41 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>7</v>
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
       </c>
       <c r="C27" s="4">
         <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C28" s="4">
         <v>2</v>
+      </c>
+      <c r="G28" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C29" s="4">
         <v>2</v>
@@ -1139,10 +1151,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C30" s="4">
         <v>2</v>
@@ -1150,10 +1162,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="C31" s="4">
         <v>2</v>
@@ -1161,117 +1173,111 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="C32" s="4">
         <v>2</v>
       </c>
-      <c r="E32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>68</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C33" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>68</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="4">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="4">
-        <v>2</v>
-      </c>
-      <c r="E34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="C36" s="4">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="C37" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="C38" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="4">
-        <v>2</v>
-      </c>
-      <c r="D37" t="s">
-        <v>56</v>
-      </c>
-      <c r="E37" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="C39" s="4">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="4">
-        <v>2</v>
-      </c>
-      <c r="E38" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="4">
-        <v>2</v>
-      </c>
-      <c r="E39" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C40" s="4">
         <v>2</v>
       </c>
@@ -1279,104 +1285,116 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>49</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C41" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>49</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C42" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E42" t="s">
+        <v>56</v>
+      </c>
+      <c r="G42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>49</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="4">
+        <v>2</v>
+      </c>
+      <c r="H43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="4">
-        <v>2</v>
-      </c>
-      <c r="E43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>31</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="C44" s="4">
         <v>2</v>
       </c>
-      <c r="D44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E44" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>31</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C45" s="4">
         <v>2</v>
       </c>
-      <c r="F45" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>31</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C46" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>31</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="4">
-        <v>2</v>
-      </c>
-      <c r="E47" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="5">
-        <v>3</v>
+      <c r="C48" s="4">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -1384,26 +1402,23 @@
         <v>13</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C49" s="5">
         <v>3</v>
       </c>
-      <c r="E49" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C50" s="5">
         <v>3</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1412,10 +1427,13 @@
         <v>32</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C51" s="5">
         <v>3</v>
+      </c>
+      <c r="D51" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -1423,7 +1441,7 @@
         <v>32</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C52" s="5">
         <v>3</v>
@@ -1431,19 +1449,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C53" s="5">
         <v>3</v>
-      </c>
-      <c r="D53" t="s">
-        <v>56</v>
-      </c>
-      <c r="E53" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -1451,10 +1463,13 @@
         <v>68</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C54" s="5">
         <v>3</v>
+      </c>
+      <c r="D54" t="s">
+        <v>56</v>
       </c>
       <c r="E54" t="s">
         <v>56</v>
@@ -1465,18 +1480,21 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C55" s="5">
         <v>3</v>
       </c>
+      <c r="E55" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C56" s="5">
         <v>3</v>
@@ -1487,7 +1505,7 @@
         <v>58</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C57" s="5">
         <v>3</v>
@@ -1495,19 +1513,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="C58" s="5">
         <v>3</v>
-      </c>
-      <c r="D58" t="s">
-        <v>56</v>
-      </c>
-      <c r="E58" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -1515,10 +1527,16 @@
         <v>67</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C59" s="5">
         <v>3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>56</v>
+      </c>
+      <c r="E59" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -1526,7 +1544,7 @@
         <v>67</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C60" s="5">
         <v>3</v>
@@ -1534,82 +1552,92 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="C61" s="5">
         <v>3</v>
       </c>
-      <c r="D61" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>49</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C62" s="5">
+        <v>3</v>
+      </c>
+      <c r="D62" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>31</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>27</v>
       </c>
-      <c r="D62" t="s">
-        <v>56</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="D63" t="s">
+        <v>56</v>
+      </c>
+      <c r="E63" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1">
-    <sortState ref="A2:G62">
+    <sortState ref="A2:G63">
       <sortCondition ref="C1"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="B21" r:id="rId1"/>
-    <hyperlink ref="B44" r:id="rId2"/>
-    <hyperlink ref="B50" r:id="rId3"/>
-    <hyperlink ref="B61" r:id="rId4"/>
-    <hyperlink ref="B22" r:id="rId5"/>
-    <hyperlink ref="B17" r:id="rId6"/>
-    <hyperlink ref="B53" r:id="rId7"/>
-    <hyperlink ref="B24" r:id="rId8"/>
-    <hyperlink ref="B25" r:id="rId9"/>
-    <hyperlink ref="B37" r:id="rId10"/>
-    <hyperlink ref="B58" r:id="rId11"/>
-    <hyperlink ref="B27" r:id="rId12"/>
-    <hyperlink ref="B48" r:id="rId13"/>
-    <hyperlink ref="B28" r:id="rId14"/>
-    <hyperlink ref="B49" r:id="rId15"/>
-    <hyperlink ref="B35" r:id="rId16"/>
-    <hyperlink ref="B36" r:id="rId17"/>
-    <hyperlink ref="B45" r:id="rId18"/>
-    <hyperlink ref="B46" r:id="rId19"/>
-    <hyperlink ref="B47" r:id="rId20"/>
-    <hyperlink ref="B29" r:id="rId21"/>
-    <hyperlink ref="B30" r:id="rId22"/>
-    <hyperlink ref="B51" r:id="rId23"/>
-    <hyperlink ref="B52" r:id="rId24"/>
-    <hyperlink ref="B39" r:id="rId25"/>
-    <hyperlink ref="B40" r:id="rId26"/>
-    <hyperlink ref="B41" r:id="rId27"/>
-    <hyperlink ref="B42" r:id="rId28"/>
-    <hyperlink ref="B43" r:id="rId29"/>
-    <hyperlink ref="B18" r:id="rId30"/>
-    <hyperlink ref="B56" r:id="rId31"/>
-    <hyperlink ref="B57" r:id="rId32"/>
-    <hyperlink ref="B54" r:id="rId33"/>
-    <hyperlink ref="B31" r:id="rId34"/>
-    <hyperlink ref="B32" r:id="rId35"/>
-    <hyperlink ref="B33" r:id="rId36"/>
-    <hyperlink ref="B55" r:id="rId37"/>
-    <hyperlink ref="B34" r:id="rId38"/>
-    <hyperlink ref="B38" r:id="rId39"/>
-    <hyperlink ref="B59" r:id="rId40"/>
-    <hyperlink ref="B60" r:id="rId41"/>
+    <hyperlink ref="B22" r:id="rId1"/>
+    <hyperlink ref="B45" r:id="rId2"/>
+    <hyperlink ref="B51" r:id="rId3"/>
+    <hyperlink ref="B62" r:id="rId4"/>
+    <hyperlink ref="B23" r:id="rId5"/>
+    <hyperlink ref="B19" r:id="rId6"/>
+    <hyperlink ref="B54" r:id="rId7"/>
+    <hyperlink ref="B25" r:id="rId8"/>
+    <hyperlink ref="B26" r:id="rId9"/>
+    <hyperlink ref="B39" r:id="rId10"/>
+    <hyperlink ref="B59" r:id="rId11"/>
+    <hyperlink ref="B29" r:id="rId12"/>
+    <hyperlink ref="B49" r:id="rId13"/>
+    <hyperlink ref="B30" r:id="rId14"/>
+    <hyperlink ref="B50" r:id="rId15"/>
+    <hyperlink ref="B37" r:id="rId16"/>
+    <hyperlink ref="B38" r:id="rId17"/>
+    <hyperlink ref="B46" r:id="rId18"/>
+    <hyperlink ref="B47" r:id="rId19"/>
+    <hyperlink ref="B48" r:id="rId20"/>
+    <hyperlink ref="B31" r:id="rId21"/>
+    <hyperlink ref="B32" r:id="rId22"/>
+    <hyperlink ref="B52" r:id="rId23"/>
+    <hyperlink ref="B53" r:id="rId24"/>
+    <hyperlink ref="B41" r:id="rId25"/>
+    <hyperlink ref="B42" r:id="rId26"/>
+    <hyperlink ref="B43" r:id="rId27"/>
+    <hyperlink ref="B28" r:id="rId28"/>
+    <hyperlink ref="B44" r:id="rId29"/>
+    <hyperlink ref="B57" r:id="rId30"/>
+    <hyperlink ref="B58" r:id="rId31"/>
+    <hyperlink ref="B55" r:id="rId32"/>
+    <hyperlink ref="B33" r:id="rId33"/>
+    <hyperlink ref="B34" r:id="rId34"/>
+    <hyperlink ref="B35" r:id="rId35"/>
+    <hyperlink ref="B56" r:id="rId36"/>
+    <hyperlink ref="B36" r:id="rId37"/>
+    <hyperlink ref="B40" r:id="rId38"/>
+    <hyperlink ref="B60" r:id="rId39"/>
+    <hyperlink ref="B61" r:id="rId40"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId42"/>
+  <pageSetup orientation="portrait" r:id="rId41"/>
 </worksheet>
 </file>
--- a/+Problems/interview.xlsx
+++ b/+Problems/interview.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="93">
   <si>
     <t>Title</t>
   </si>
@@ -303,6 +303,9 @@
   </si>
   <si>
     <t>INCOMPLETE</t>
+  </si>
+  <si>
+    <t>Stack</t>
   </si>
 </sst>
 </file>
@@ -702,7 +705,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="K43" sqref="K43"/>
+      <selection pane="bottomLeft" activeCell="M54" sqref="M54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -882,128 +885,131 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>44</v>
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>86</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
       </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="I9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
       </c>
       <c r="I10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>86</v>
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
       </c>
-      <c r="I11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
       </c>
       <c r="I14" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2</v>
       </c>
       <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
         <v>10</v>
       </c>
       <c r="I15" t="s">
@@ -1012,16 +1018,16 @@
     </row>
     <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
+        <v>38</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2</v>
       </c>
       <c r="F16" t="s">
         <v>10</v>
@@ -1035,19 +1041,16 @@
     </row>
     <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>10</v>
+        <v>39</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2</v>
       </c>
       <c r="I17" t="s">
         <v>10</v>
@@ -1055,155 +1058,149 @@
     </row>
     <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="4">
+        <v>2</v>
+      </c>
+      <c r="I18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="4">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="4">
+        <v>2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>7</v>
       </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="I18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="4">
+        <v>2</v>
+      </c>
+      <c r="G22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>7</v>
       </c>
-      <c r="C19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="I19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-      <c r="F20" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="I21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-      <c r="I22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
       <c r="C23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="4">
+        <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>92</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="4">
+        <v>2</v>
       </c>
       <c r="I24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
       </c>
-      <c r="D25" t="s">
-        <v>27</v>
+      <c r="D25" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="E25" s="4">
         <v>2</v>
       </c>
-      <c r="F25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="G25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>23</v>
       </c>
       <c r="E26" s="4">
         <v>2</v>
@@ -1211,73 +1208,64 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="E27" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
       </c>
-      <c r="D28" t="s">
-        <v>37</v>
+      <c r="D28" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="E28" s="4">
         <v>2</v>
       </c>
-      <c r="F28" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" t="s">
-        <v>10</v>
-      </c>
-      <c r="I28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>38</v>
+      <c r="D29" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="E29" s="4">
         <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I29" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="4">
-        <v>2</v>
+        <v>51</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
       </c>
       <c r="I30" t="s">
         <v>10</v>
@@ -1285,16 +1273,19 @@
     </row>
     <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E31" s="4">
         <v>2</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
       </c>
       <c r="I31" t="s">
         <v>10</v>
@@ -1302,84 +1293,84 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C32" t="s">
         <v>10</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" s="4">
-        <v>2</v>
+        <v>36</v>
+      </c>
+      <c r="E32" s="5">
+        <v>3</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
-      </c>
-      <c r="I32" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C33" t="s">
         <v>10</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="E33" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C34" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E34" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>87</v>
       </c>
       <c r="C35" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E35" s="4">
-        <v>2</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="D35" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1</v>
+      </c>
+      <c r="I35" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E36" s="4">
-        <v>2</v>
-      </c>
-      <c r="F36" t="s">
-        <v>10</v>
+        <v>19</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1</v>
       </c>
       <c r="I36" t="s">
         <v>10</v>
@@ -1393,10 +1384,13 @@
         <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>58</v>
-      </c>
-      <c r="E37" s="4">
-        <v>2</v>
+        <v>55</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>10</v>
       </c>
       <c r="I37" t="s">
         <v>10</v>
@@ -1409,8 +1403,8 @@
       <c r="C38" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>60</v>
+      <c r="D38" t="s">
+        <v>58</v>
       </c>
       <c r="E38" s="4">
         <v>2</v>
@@ -1419,7 +1413,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -1427,33 +1421,27 @@
         <v>10</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E39" s="4">
         <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E40" s="4">
         <v>2</v>
-      </c>
-      <c r="F40" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40" t="s">
-        <v>10</v>
       </c>
       <c r="I40" t="s">
         <v>10</v>
@@ -1463,14 +1451,11 @@
       <c r="A41" t="s">
         <v>12</v>
       </c>
-      <c r="B41" t="s">
-        <v>89</v>
-      </c>
       <c r="C41" t="s">
         <v>10</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E41" s="4">
         <v>2</v>
@@ -1478,48 +1463,48 @@
       <c r="F41" t="s">
         <v>10</v>
       </c>
+      <c r="G41" t="s">
+        <v>10</v>
+      </c>
       <c r="I41" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>12</v>
       </c>
+      <c r="B42" t="s">
+        <v>89</v>
+      </c>
       <c r="C42" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>64</v>
+      <c r="D42" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="E42" s="4">
         <v>2</v>
       </c>
-      <c r="G42" t="s">
+      <c r="F42" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E43" s="4">
-        <v>2</v>
-      </c>
-      <c r="F43" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43" t="s">
-        <v>10</v>
-      </c>
-      <c r="I43" t="s">
-        <v>91</v>
+        <v>43</v>
+      </c>
+      <c r="E43" s="5">
+        <v>3</v>
       </c>
       <c r="J43" t="s">
         <v>10</v>
@@ -1527,121 +1512,124 @@
     </row>
     <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C44" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="6" t="s">
-        <v>71</v>
+      <c r="D44" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="E44" s="4">
         <v>2</v>
       </c>
+      <c r="F44" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" t="s">
+        <v>10</v>
+      </c>
       <c r="I44" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E45" s="4">
-        <v>2</v>
-      </c>
-      <c r="G45" t="s">
-        <v>10</v>
-      </c>
-      <c r="I45" t="s">
+      <c r="D45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" s="5">
+        <v>3</v>
+      </c>
+      <c r="F45" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>10</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E46" s="4">
-        <v>2</v>
-      </c>
-      <c r="G46" t="s">
-        <v>10</v>
+        <v>42</v>
+      </c>
+      <c r="E46" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C47" t="s">
         <v>10</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E47" s="4">
-        <v>2</v>
-      </c>
-      <c r="I47" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="E47" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>7</v>
       </c>
       <c r="C48" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E48" s="4">
-        <v>2</v>
-      </c>
-      <c r="G48" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D48" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>10</v>
+      </c>
+      <c r="I48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
-      </c>
-      <c r="D49" t="s">
-        <v>23</v>
-      </c>
-      <c r="E49" s="4">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>10</v>
       </c>
-      <c r="D50" t="s">
-        <v>80</v>
-      </c>
-      <c r="E50" s="4">
-        <v>2</v>
-      </c>
-      <c r="G50" t="s">
-        <v>10</v>
+      <c r="D50" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50" s="3">
+        <v>1</v>
       </c>
       <c r="I50" t="s">
         <v>10</v>
@@ -1649,50 +1637,47 @@
     </row>
     <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>19</v>
       </c>
       <c r="D51" t="s">
-        <v>21</v>
-      </c>
-      <c r="E51" s="4">
-        <v>2</v>
+        <v>22</v>
+      </c>
+      <c r="E51" s="3">
+        <v>1</v>
       </c>
       <c r="I51" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>82</v>
+      <c r="D52" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="E52" s="4">
         <v>2</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>5</v>
-      </c>
-      <c r="B53" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>84</v>
+      <c r="D53" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="E53" s="4">
         <v>2</v>
@@ -1706,61 +1691,64 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C54" t="s">
         <v>10</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E54" s="4">
-        <v>2</v>
+        <v>48</v>
+      </c>
+      <c r="E54" s="5">
+        <v>3</v>
+      </c>
+      <c r="F54" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C55" t="s">
         <v>10</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E55" s="4">
-        <v>2</v>
-      </c>
-      <c r="F55" t="s">
+        <v>49</v>
+      </c>
+      <c r="E55" s="5">
+        <v>3</v>
+      </c>
+      <c r="G55" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="C56" t="s">
         <v>10</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="E56" s="5">
         <v>3</v>
       </c>
-      <c r="G56" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="C57" t="s">
         <v>10</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="E57" s="5">
         <v>3</v>
@@ -1768,129 +1756,150 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C58" t="s">
         <v>10</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="E58" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F58" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
         <v>10</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E59" s="5">
-        <v>3</v>
+      <c r="D59" t="s">
+        <v>77</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1</v>
       </c>
       <c r="F59" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E60" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D60" t="s">
+        <v>79</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1</v>
+      </c>
+      <c r="I60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
         <v>10</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E61" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D61" t="s">
+        <v>78</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>10</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E62" s="5">
-        <v>3</v>
-      </c>
-      <c r="F62" t="s">
-        <v>10</v>
-      </c>
-      <c r="G62" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="D62" t="s">
+        <v>20</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1</v>
+      </c>
+      <c r="I62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>10</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E63" s="5">
-        <v>3</v>
-      </c>
-      <c r="G63" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="D63" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63" s="3">
+        <v>1</v>
+      </c>
+      <c r="I63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
         <v>10</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E64" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D64" t="s">
+        <v>80</v>
+      </c>
+      <c r="E64" s="4">
+        <v>2</v>
+      </c>
+      <c r="G64" t="s">
+        <v>10</v>
+      </c>
+      <c r="I64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
-        <v>10</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E65" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="D65" t="s">
+        <v>21</v>
+      </c>
+      <c r="E65" s="4">
+        <v>2</v>
+      </c>
+      <c r="I65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>12</v>
       </c>
@@ -1898,33 +1907,36 @@
         <v>10</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E66" s="5">
         <v>3</v>
       </c>
-      <c r="F66" t="s">
-        <v>10</v>
-      </c>
-      <c r="G66" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="B67" t="s">
+        <v>87</v>
       </c>
       <c r="C67" t="s">
         <v>10</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E67" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="E67" s="4">
+        <v>2</v>
+      </c>
+      <c r="G67" t="s">
+        <v>10</v>
+      </c>
+      <c r="I67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>12</v>
       </c>
@@ -1938,7 +1950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -1955,7 +1967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -1975,47 +1987,48 @@
   </sheetData>
   <autoFilter ref="A1:I70">
     <filterColumn colId="8">
-      <filters blank="1"/>
+      <filters blank="1">
+        <filter val="INCOMPLETE"/>
+      </filters>
     </filterColumn>
-    <sortState ref="A2:I70">
+    <sortState ref="A11:I70">
       <sortCondition ref="E1:E70"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="D55" r:id="rId1" display=" Number of Islands"/>
-    <hyperlink ref="D59" r:id="rId2" display=" Remove Invalid Parentheses"/>
+    <hyperlink ref="D29" r:id="rId1" display=" Number of Islands"/>
+    <hyperlink ref="D45" r:id="rId2" display=" Remove Invalid Parentheses"/>
     <hyperlink ref="D69" r:id="rId3" display=" Merge k Sorted Lists"/>
-    <hyperlink ref="D9" r:id="rId4" display=" Read N Characters Given Read4"/>
-    <hyperlink ref="D62" r:id="rId5" display=" Read N Characters Given Read4 II - Call multiple times"/>
-    <hyperlink ref="D43" r:id="rId6" display=" Task Scheduler"/>
-    <hyperlink ref="D66" r:id="rId7" display=" Integer to English Words"/>
-    <hyperlink ref="D27" r:id="rId8" display=" Minimum Size Subarray Sum"/>
-    <hyperlink ref="D57" r:id="rId9" display=" Valid Number"/>
-    <hyperlink ref="D26" r:id="rId10" display=" Maximum Size Subarray Sum Equals k"/>
-    <hyperlink ref="D56" r:id="rId11" display=" Trapping Rain Water"/>
-    <hyperlink ref="D39" r:id="rId12" display=" Remove Nth Node From End of List"/>
-    <hyperlink ref="D38" r:id="rId13" display=" Flatten Binary Tree to Linked List"/>
-    <hyperlink ref="D52" r:id="rId14" display=" Binary Tree Vertical Order Traversal"/>
-    <hyperlink ref="D54" r:id="rId15" display=" Construct Binary Tree from Preorder and Inorder Traversal"/>
-    <hyperlink ref="D53" r:id="rId16" display=" Clone Graph"/>
-    <hyperlink ref="D60" r:id="rId17" display=" Wildcard Matching"/>
-    <hyperlink ref="D58" r:id="rId18" display=" Regular Expression Matching"/>
-    <hyperlink ref="D46" r:id="rId19" display=" Meeting Rooms II"/>
-    <hyperlink ref="D47" r:id="rId20" display=" Search in Rotated Sorted Array II"/>
-    <hyperlink ref="D48" r:id="rId21" display=" Smallest Range"/>
-    <hyperlink ref="D65" r:id="rId22" display=" Minimum Window Subsequence"/>
-    <hyperlink ref="D64" r:id="rId23" display=" Maximum Sum of 3 Non-Overlapping Subarrays"/>
-    <hyperlink ref="D63" r:id="rId24" display=" Serialize and Deserialize Binary Tree"/>
-    <hyperlink ref="D34" r:id="rId25" display=" Flatten Nested List Iterator"/>
-    <hyperlink ref="D32" r:id="rId26" display=" Add and Search Word - Data structure design"/>
-    <hyperlink ref="D33" r:id="rId27" display=" Binary Search Tree Iterator"/>
-    <hyperlink ref="D61" r:id="rId28" display=" LRU Cache"/>
-    <hyperlink ref="D35" r:id="rId29" display=" Sparse Matrix Multiplication"/>
-    <hyperlink ref="D42" r:id="rId30" display=" Find the Celebrity"/>
-    <hyperlink ref="D67" r:id="rId31" display=" Minimum Window Substring"/>
-    <hyperlink ref="D68" r:id="rId32" display=" Palindrome Pairs"/>
+    <hyperlink ref="D11" r:id="rId4" display=" Read N Characters Given Read4"/>
+    <hyperlink ref="D54" r:id="rId5" display=" Read N Characters Given Read4 II - Call multiple times"/>
+    <hyperlink ref="D44" r:id="rId6" display=" Task Scheduler"/>
+    <hyperlink ref="D58" r:id="rId7" display=" Integer to English Words"/>
+    <hyperlink ref="D13" r:id="rId8" display=" Minimum Size Subarray Sum"/>
+    <hyperlink ref="D33" r:id="rId9" display=" Valid Number"/>
+    <hyperlink ref="D12" r:id="rId10" display=" Maximum Size Subarray Sum Equals k"/>
+    <hyperlink ref="D32" r:id="rId11" display=" Trapping Rain Water"/>
+    <hyperlink ref="D39" r:id="rId12" display=" Flatten Binary Tree to Linked List"/>
+    <hyperlink ref="D27" r:id="rId13" display=" Binary Tree Vertical Order Traversal"/>
+    <hyperlink ref="D28" r:id="rId14" display=" Construct Binary Tree from Preorder and Inorder Traversal"/>
+    <hyperlink ref="D67" r:id="rId15" display=" Clone Graph"/>
+    <hyperlink ref="D46" r:id="rId16" display=" Wildcard Matching"/>
+    <hyperlink ref="D43" r:id="rId17" display=" Regular Expression Matching"/>
+    <hyperlink ref="D22" r:id="rId18" display=" Meeting Rooms II"/>
+    <hyperlink ref="D23" r:id="rId19" display=" Search in Rotated Sorted Array II"/>
+    <hyperlink ref="D25" r:id="rId20" display=" Smallest Range"/>
+    <hyperlink ref="D57" r:id="rId21" display=" Minimum Window Subsequence"/>
+    <hyperlink ref="D56" r:id="rId22" display=" Maximum Sum of 3 Non-Overlapping Subarrays"/>
+    <hyperlink ref="D55" r:id="rId23" display=" Serialize and Deserialize Binary Tree"/>
+    <hyperlink ref="D19" r:id="rId24" display=" Flatten Nested List Iterator"/>
+    <hyperlink ref="D14" r:id="rId25" display=" Add and Search Word - Data structure design"/>
+    <hyperlink ref="D24" r:id="rId26" display=" Binary Search Tree Iterator"/>
+    <hyperlink ref="D47" r:id="rId27" display=" LRU Cache"/>
+    <hyperlink ref="D20" r:id="rId28" display=" Sparse Matrix Multiplication"/>
+    <hyperlink ref="D21" r:id="rId29" display=" Find the Celebrity"/>
+    <hyperlink ref="D66" r:id="rId30" display=" Minimum Window Substring"/>
+    <hyperlink ref="D68" r:id="rId31" display=" Palindrome Pairs"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId33"/>
+  <pageSetup orientation="portrait" r:id="rId32"/>
 </worksheet>
 </file>
--- a/+Problems/interview.xlsx
+++ b/+Problems/interview.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="97">
   <si>
     <t>Title</t>
   </si>
@@ -306,6 +306,18 @@
   </si>
   <si>
     <t>Stack</t>
+  </si>
+  <si>
+    <t>Trie</t>
+  </si>
+  <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>Kadane</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
   </si>
 </sst>
 </file>
@@ -699,13 +711,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:J70"/>
+  <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="M54" sqref="M54"/>
+      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -722,7 +733,7 @@
     <col min="10" max="10" width="5.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -753,8 +764,11 @@
       <c r="J1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -774,7 +788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -794,7 +808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -814,7 +828,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -831,7 +845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -848,7 +862,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -868,7 +882,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -885,7 +899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -905,7 +919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -925,7 +939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -944,8 +958,11 @@
       <c r="G11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -959,7 +976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -972,8 +989,11 @@
       <c r="E13" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -981,19 +1001,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="E14" s="4">
         <v>2</v>
       </c>
-      <c r="G14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1016,7 +1030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1039,7 +1053,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1056,7 +1070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1081,21 +1095,24 @@
         <v>10</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="E19" s="4">
         <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E20" s="4">
         <v>2</v>
@@ -1106,13 +1123,13 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E21" s="4">
         <v>2</v>
@@ -1129,49 +1146,52 @@
         <v>10</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E22" s="4">
         <v>2</v>
       </c>
-      <c r="G22" t="s">
-        <v>10</v>
+      <c r="I22" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="4">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>7</v>
       </c>
-      <c r="C23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23" s="4">
-        <v>2</v>
-      </c>
-      <c r="I23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" t="s">
-        <v>92</v>
-      </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="E24" s="4">
         <v>2</v>
       </c>
-      <c r="I24" t="s">
+      <c r="G24" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1180,30 +1200,33 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>75</v>
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
       </c>
       <c r="E25" s="4">
         <v>2</v>
-      </c>
-      <c r="G25" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="B26" t="s">
+        <v>92</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="E26" s="4">
         <v>2</v>
+      </c>
+      <c r="I26" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -1254,10 +1277,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>90</v>
       </c>
+      <c r="B30" t="s">
+        <v>95</v>
+      </c>
       <c r="C30" t="s">
         <v>10</v>
       </c>
@@ -1271,7 +1297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>90</v>
       </c>
@@ -1322,7 +1348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1339,7 +1365,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1359,7 +1385,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -1376,7 +1402,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -1396,7 +1422,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -1413,7 +1439,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -1430,7 +1456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -1447,46 +1473,37 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E41" s="4">
-        <v>2</v>
-      </c>
-      <c r="F41" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" t="s">
-        <v>10</v>
-      </c>
-      <c r="I41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D41" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>12</v>
       </c>
-      <c r="B42" t="s">
-        <v>89</v>
-      </c>
       <c r="C42" t="s">
         <v>10</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E42" s="4">
         <v>2</v>
       </c>
       <c r="F42" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" t="s">
         <v>10</v>
       </c>
       <c r="I42" t="s">
@@ -1495,22 +1512,31 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="B43" t="s">
+        <v>89</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E43" s="5">
-        <v>3</v>
+      <c r="D43" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E43" s="4">
+        <v>2</v>
+      </c>
+      <c r="F43" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" t="s">
+        <v>10</v>
       </c>
       <c r="J43" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -1578,81 +1604,72 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C48" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1</v>
+      <c r="D48" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E48" s="5">
+        <v>3</v>
       </c>
       <c r="F48" t="s">
         <v>10</v>
       </c>
-      <c r="I48" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C49" t="s">
         <v>10</v>
       </c>
-      <c r="D49" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E49" s="3">
-        <v>1</v>
-      </c>
-      <c r="F49" t="s">
-        <v>10</v>
-      </c>
-      <c r="I49" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D49" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49" s="5">
+        <v>3</v>
+      </c>
+      <c r="G49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C50" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E50" s="3">
-        <v>1</v>
-      </c>
-      <c r="I50" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D50" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E50" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C51" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51" t="s">
-        <v>22</v>
-      </c>
-      <c r="E51" s="3">
-        <v>1</v>
-      </c>
-      <c r="I51" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E51" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -1660,16 +1677,19 @@
         <v>10</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E52" s="4">
-        <v>2</v>
+        <v>68</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
+        <v>10</v>
       </c>
       <c r="I52" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -1677,12 +1697,12 @@
         <v>10</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E53" s="4">
-        <v>2</v>
-      </c>
-      <c r="G53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="3">
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
         <v>10</v>
       </c>
       <c r="I53" t="s">
@@ -1691,67 +1711,76 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E54" s="5">
-        <v>3</v>
-      </c>
-      <c r="F54" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" t="s">
+      <c r="D54" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E55" s="5">
-        <v>3</v>
-      </c>
-      <c r="G55" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55" s="3">
+        <v>1</v>
+      </c>
+      <c r="I55" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>10</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E56" s="5">
-        <v>3</v>
+      <c r="D56" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E56" s="4">
+        <v>2</v>
+      </c>
+      <c r="I56" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>90</v>
+        <v>7</v>
+      </c>
+      <c r="B57" t="s">
+        <v>96</v>
       </c>
       <c r="C57" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E57" s="5">
-        <v>3</v>
+      <c r="D57" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E57" s="4">
+        <v>2</v>
+      </c>
+      <c r="G57" t="s">
+        <v>10</v>
+      </c>
+      <c r="I57" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -1774,86 +1803,80 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C59" t="s">
         <v>10</v>
       </c>
-      <c r="D59" t="s">
-        <v>77</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1</v>
-      </c>
-      <c r="F59" t="s">
-        <v>10</v>
-      </c>
-      <c r="I59" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D59" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E59" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C60" t="s">
         <v>10</v>
       </c>
-      <c r="D60" t="s">
-        <v>79</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1</v>
-      </c>
-      <c r="I60" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D60" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E60" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
         <v>10</v>
       </c>
-      <c r="D61" t="s">
-        <v>78</v>
-      </c>
-      <c r="E61" s="3">
-        <v>1</v>
-      </c>
-      <c r="I61" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D61" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E61" s="5">
+        <v>3</v>
+      </c>
+      <c r="F61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="E62" s="3">
         <v>1</v>
       </c>
+      <c r="F62" t="s">
+        <v>10</v>
+      </c>
       <c r="I62" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="E63" s="3">
         <v>1</v>
@@ -1862,7 +1885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -1870,19 +1893,16 @@
         <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>80</v>
-      </c>
-      <c r="E64" s="4">
-        <v>2</v>
-      </c>
-      <c r="G64" t="s">
-        <v>10</v>
+        <v>78</v>
+      </c>
+      <c r="E64" s="3">
+        <v>1</v>
       </c>
       <c r="I64" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -1890,10 +1910,10 @@
         <v>19</v>
       </c>
       <c r="D65" t="s">
-        <v>21</v>
-      </c>
-      <c r="E65" s="4">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="E65" s="3">
+        <v>1</v>
       </c>
       <c r="I65" t="s">
         <v>10</v>
@@ -1901,30 +1921,30 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
-        <v>10</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E66" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="D66" t="s">
+        <v>25</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1</v>
+      </c>
+      <c r="I66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>5</v>
       </c>
-      <c r="B67" t="s">
-        <v>87</v>
-      </c>
       <c r="C67" t="s">
         <v>10</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>84</v>
+      <c r="D67" t="s">
+        <v>80</v>
       </c>
       <c r="E67" s="4">
         <v>2</v>
@@ -1938,32 +1958,41 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>10</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E68" s="5">
-        <v>3</v>
+        <v>19</v>
+      </c>
+      <c r="D68" t="s">
+        <v>21</v>
+      </c>
+      <c r="E68" s="4">
+        <v>2</v>
+      </c>
+      <c r="I68" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="B69" t="s">
+        <v>87</v>
       </c>
       <c r="C69" t="s">
         <v>10</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E69" s="5">
-        <v>3</v>
-      </c>
-      <c r="F69" t="s">
+        <v>84</v>
+      </c>
+      <c r="E69" s="4">
+        <v>2</v>
+      </c>
+      <c r="G69" t="s">
+        <v>10</v>
+      </c>
+      <c r="I69" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1986,11 +2015,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:I70">
-    <filterColumn colId="8">
-      <filters blank="1">
-        <filter val="INCOMPLETE"/>
-      </filters>
-    </filterColumn>
     <sortState ref="A11:I70">
       <sortCondition ref="E1:E70"/>
     </sortState>
@@ -1998,9 +2022,9 @@
   <hyperlinks>
     <hyperlink ref="D29" r:id="rId1" display=" Number of Islands"/>
     <hyperlink ref="D45" r:id="rId2" display=" Remove Invalid Parentheses"/>
-    <hyperlink ref="D69" r:id="rId3" display=" Merge k Sorted Lists"/>
+    <hyperlink ref="D61" r:id="rId3" display=" Merge k Sorted Lists"/>
     <hyperlink ref="D11" r:id="rId4" display=" Read N Characters Given Read4"/>
-    <hyperlink ref="D54" r:id="rId5" display=" Read N Characters Given Read4 II - Call multiple times"/>
+    <hyperlink ref="D48" r:id="rId5" display=" Read N Characters Given Read4 II - Call multiple times"/>
     <hyperlink ref="D44" r:id="rId6" display=" Task Scheduler"/>
     <hyperlink ref="D58" r:id="rId7" display=" Integer to English Words"/>
     <hyperlink ref="D13" r:id="rId8" display=" Minimum Size Subarray Sum"/>
@@ -2010,23 +2034,23 @@
     <hyperlink ref="D39" r:id="rId12" display=" Flatten Binary Tree to Linked List"/>
     <hyperlink ref="D27" r:id="rId13" display=" Binary Tree Vertical Order Traversal"/>
     <hyperlink ref="D28" r:id="rId14" display=" Construct Binary Tree from Preorder and Inorder Traversal"/>
-    <hyperlink ref="D67" r:id="rId15" display=" Clone Graph"/>
+    <hyperlink ref="D69" r:id="rId15" display=" Clone Graph"/>
     <hyperlink ref="D46" r:id="rId16" display=" Wildcard Matching"/>
-    <hyperlink ref="D43" r:id="rId17" display=" Regular Expression Matching"/>
-    <hyperlink ref="D22" r:id="rId18" display=" Meeting Rooms II"/>
-    <hyperlink ref="D23" r:id="rId19" display=" Search in Rotated Sorted Array II"/>
-    <hyperlink ref="D25" r:id="rId20" display=" Smallest Range"/>
-    <hyperlink ref="D57" r:id="rId21" display=" Minimum Window Subsequence"/>
-    <hyperlink ref="D56" r:id="rId22" display=" Maximum Sum of 3 Non-Overlapping Subarrays"/>
-    <hyperlink ref="D55" r:id="rId23" display=" Serialize and Deserialize Binary Tree"/>
-    <hyperlink ref="D19" r:id="rId24" display=" Flatten Nested List Iterator"/>
-    <hyperlink ref="D14" r:id="rId25" display=" Add and Search Word - Data structure design"/>
-    <hyperlink ref="D24" r:id="rId26" display=" Binary Search Tree Iterator"/>
+    <hyperlink ref="D41" r:id="rId17" display=" Regular Expression Matching"/>
+    <hyperlink ref="D21" r:id="rId18" display=" Meeting Rooms II"/>
+    <hyperlink ref="D22" r:id="rId19" display=" Search in Rotated Sorted Array II"/>
+    <hyperlink ref="D24" r:id="rId20" display=" Smallest Range"/>
+    <hyperlink ref="D51" r:id="rId21" display=" Minimum Window Subsequence"/>
+    <hyperlink ref="D50" r:id="rId22" display=" Maximum Sum of 3 Non-Overlapping Subarrays"/>
+    <hyperlink ref="D49" r:id="rId23" display=" Serialize and Deserialize Binary Tree"/>
+    <hyperlink ref="D14" r:id="rId24" display=" Flatten Nested List Iterator"/>
+    <hyperlink ref="D23" r:id="rId25" display=" Add and Search Word - Data structure design"/>
+    <hyperlink ref="D26" r:id="rId26" display=" Binary Search Tree Iterator"/>
     <hyperlink ref="D47" r:id="rId27" display=" LRU Cache"/>
-    <hyperlink ref="D20" r:id="rId28" display=" Sparse Matrix Multiplication"/>
-    <hyperlink ref="D21" r:id="rId29" display=" Find the Celebrity"/>
-    <hyperlink ref="D66" r:id="rId30" display=" Minimum Window Substring"/>
-    <hyperlink ref="D68" r:id="rId31" display=" Palindrome Pairs"/>
+    <hyperlink ref="D19" r:id="rId28" display=" Sparse Matrix Multiplication"/>
+    <hyperlink ref="D20" r:id="rId29" display=" Find the Celebrity"/>
+    <hyperlink ref="D59" r:id="rId30" display=" Minimum Window Substring"/>
+    <hyperlink ref="D60" r:id="rId31" display=" Palindrome Pairs"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId32"/>

--- a/+Problems/interview.xlsx
+++ b/+Problems/interview.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$72</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="100">
   <si>
     <t>Title</t>
   </si>
@@ -318,6 +318,15 @@
   </si>
   <si>
     <t>Binary Search</t>
+  </si>
+  <si>
+    <t>Sqrt(x)</t>
+  </si>
+  <si>
+    <t>DFS</t>
+  </si>
+  <si>
+    <t>Guess Number Higher or Lower</t>
   </si>
 </sst>
 </file>
@@ -711,12 +720,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K70"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:K72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
+      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -768,7 +778,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -788,7 +798,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -808,7 +818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -828,7 +838,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -845,7 +855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -862,7 +872,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -882,7 +892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -899,7 +909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -921,127 +931,133 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="4">
-        <v>2</v>
+      <c r="D10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
       </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
       <c r="I10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>90</v>
+      </c>
+      <c r="B11" t="s">
+        <v>95</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>44</v>
+      <c r="D11" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
       </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>87</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="4">
-        <v>2</v>
+      <c r="D13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
       </c>
       <c r="I13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="4">
-        <v>2</v>
+        <v>55</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
       </c>
       <c r="F15" t="s">
         <v>10</v>
       </c>
-      <c r="G15" t="s">
-        <v>10</v>
-      </c>
       <c r="I15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="4">
-        <v>2</v>
+        <v>68</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
       </c>
       <c r="F16" t="s">
         <v>10</v>
@@ -1053,643 +1069,709 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="4">
-        <v>2</v>
+        <v>69</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
       </c>
       <c r="I17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="4">
-        <v>2</v>
+        <v>70</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
       </c>
       <c r="I18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="4">
-        <v>2</v>
-      </c>
-      <c r="G19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="4">
-        <v>2</v>
-      </c>
-      <c r="G20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="4">
-        <v>2</v>
-      </c>
-      <c r="G21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="4">
-        <v>2</v>
+      <c r="D22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="4">
-        <v>2</v>
-      </c>
-      <c r="G23" t="s">
-        <v>10</v>
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
       </c>
       <c r="I23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E24" s="4">
-        <v>2</v>
-      </c>
-      <c r="G24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>7</v>
       </c>
+      <c r="B25" t="s">
+        <v>96</v>
+      </c>
       <c r="C25" t="s">
         <v>19</v>
       </c>
       <c r="D25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="4">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="4">
+        <v>2</v>
+      </c>
+      <c r="I28" t="s">
+        <v>91</v>
+      </c>
+      <c r="K28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="4">
+        <v>2</v>
+      </c>
+      <c r="I29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="4">
+        <v>2</v>
+      </c>
+      <c r="I30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="4">
+        <v>2</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="4">
+        <v>2</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="4">
+        <v>2</v>
+      </c>
+      <c r="I33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="4">
+        <v>2</v>
+      </c>
+      <c r="I34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="4">
+        <v>2</v>
+      </c>
+      <c r="G35" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="4">
+        <v>2</v>
+      </c>
+      <c r="G36" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" t="s">
+        <v>91</v>
+      </c>
+      <c r="K36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" s="4">
+        <v>2</v>
+      </c>
+      <c r="G37" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="4">
+        <v>2</v>
+      </c>
+      <c r="I38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="4">
+        <v>2</v>
+      </c>
+      <c r="G39" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E40" s="4">
+        <v>2</v>
+      </c>
+      <c r="G40" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="E41" s="4">
+        <v>2</v>
+      </c>
+      <c r="I41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>13</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B42" t="s">
         <v>92</v>
       </c>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="4">
-        <v>2</v>
-      </c>
-      <c r="I26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="E42" s="4">
+        <v>2</v>
+      </c>
+      <c r="I42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>5</v>
       </c>
-      <c r="C27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="2" t="s">
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E27" s="4">
-        <v>2</v>
-      </c>
-      <c r="H27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="E43" s="4">
+        <v>2</v>
+      </c>
+      <c r="H43" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" t="s">
+        <v>91</v>
+      </c>
+      <c r="J43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>5</v>
       </c>
-      <c r="C28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E28" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="E44" s="4">
+        <v>2</v>
+      </c>
+      <c r="I44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>5</v>
       </c>
-      <c r="C29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="2" t="s">
+      <c r="B45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E29" s="4">
-        <v>2</v>
-      </c>
-      <c r="F29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="E45" s="4">
+        <v>2</v>
+      </c>
+      <c r="F45" t="s">
+        <v>10</v>
+      </c>
+      <c r="I45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>90</v>
       </c>
-      <c r="B30" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" s="3">
-        <v>1</v>
-      </c>
-      <c r="I30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="6" t="s">
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="4">
-        <v>2</v>
-      </c>
-      <c r="F31" t="s">
-        <v>10</v>
-      </c>
-      <c r="I31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E32" s="5">
-        <v>3</v>
-      </c>
-      <c r="G32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="E46" s="4">
+        <v>2</v>
+      </c>
+      <c r="F46" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>4</v>
       </c>
-      <c r="C34" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E34" s="3">
-        <v>1</v>
-      </c>
-      <c r="I34" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" s="4">
+        <v>2</v>
+      </c>
+      <c r="I47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>4</v>
       </c>
-      <c r="B35" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1</v>
-      </c>
-      <c r="I35" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E48" s="4">
+        <v>2</v>
+      </c>
+      <c r="I48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>4</v>
       </c>
-      <c r="C36" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="3">
-        <v>1</v>
-      </c>
-      <c r="I36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" t="s">
-        <v>55</v>
-      </c>
-      <c r="E37" s="3">
-        <v>1</v>
-      </c>
-      <c r="F37" t="s">
-        <v>10</v>
-      </c>
-      <c r="I37" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" t="s">
-        <v>58</v>
-      </c>
-      <c r="E38" s="4">
-        <v>2</v>
-      </c>
-      <c r="I38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E39" s="4">
-        <v>2</v>
-      </c>
-      <c r="I39" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="6" t="s">
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E40" s="4">
-        <v>2</v>
-      </c>
-      <c r="I40" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E41" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="E49" s="4">
+        <v>2</v>
+      </c>
+      <c r="I49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>12</v>
       </c>
-      <c r="C42" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="6" t="s">
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E42" s="4">
-        <v>2</v>
-      </c>
-      <c r="F42" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" t="s">
-        <v>10</v>
-      </c>
-      <c r="I42" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="E50" s="4">
+        <v>2</v>
+      </c>
+      <c r="F50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" t="s">
+        <v>10</v>
+      </c>
+      <c r="I50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>12</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B51" t="s">
         <v>89</v>
       </c>
-      <c r="C43" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="6" t="s">
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E43" s="4">
-        <v>2</v>
-      </c>
-      <c r="F43" t="s">
-        <v>10</v>
-      </c>
-      <c r="I43" t="s">
-        <v>10</v>
-      </c>
-      <c r="J43" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="E51" s="4">
+        <v>2</v>
+      </c>
+      <c r="F51" t="s">
+        <v>10</v>
+      </c>
+      <c r="I51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>12</v>
       </c>
-      <c r="C44" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" s="2" t="s">
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E44" s="4">
-        <v>2</v>
-      </c>
-      <c r="F44" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" t="s">
-        <v>10</v>
-      </c>
-      <c r="I44" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E45" s="5">
-        <v>3</v>
-      </c>
-      <c r="F45" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E46" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E47" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E48" s="5">
-        <v>3</v>
-      </c>
-      <c r="F48" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>13</v>
-      </c>
-      <c r="C49" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E49" s="5">
-        <v>3</v>
-      </c>
-      <c r="G49" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>90</v>
-      </c>
-      <c r="C50" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E50" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>90</v>
-      </c>
-      <c r="C51" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E51" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1</v>
+      <c r="E52" s="4">
+        <v>2</v>
       </c>
       <c r="F52" t="s">
         <v>10</v>
       </c>
+      <c r="G52" t="s">
+        <v>10</v>
+      </c>
       <c r="I52" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -1697,61 +1779,67 @@
         <v>10</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E53" s="3">
-        <v>1</v>
-      </c>
-      <c r="F53" t="s">
-        <v>10</v>
+        <v>71</v>
+      </c>
+      <c r="E53" s="4">
+        <v>2</v>
       </c>
       <c r="I53" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>7</v>
       </c>
+      <c r="B54" t="s">
+        <v>96</v>
+      </c>
       <c r="C54" t="s">
         <v>10</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1</v>
+        <v>73</v>
+      </c>
+      <c r="E54" s="4">
+        <v>2</v>
+      </c>
+      <c r="G54" t="s">
+        <v>10</v>
       </c>
       <c r="I54" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" t="s">
+        <v>80</v>
+      </c>
+      <c r="E55" s="4">
+        <v>2</v>
+      </c>
+      <c r="G55" t="s">
+        <v>10</v>
+      </c>
+      <c r="I55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
         <v>19</v>
       </c>
-      <c r="D55" t="s">
-        <v>22</v>
-      </c>
-      <c r="E55" s="3">
-        <v>1</v>
-      </c>
-      <c r="I55" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>71</v>
+      <c r="D56" t="s">
+        <v>21</v>
       </c>
       <c r="E56" s="4">
         <v>2</v>
@@ -1760,18 +1848,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C57" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="6" t="s">
-        <v>73</v>
+      <c r="D57" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="E57" s="4">
         <v>2</v>
@@ -1783,63 +1871,60 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C58" t="s">
         <v>10</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="E58" s="5">
         <v>3</v>
       </c>
-      <c r="F58" t="s">
-        <v>10</v>
-      </c>
       <c r="G58" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C59" t="s">
         <v>10</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="E59" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
         <v>10</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="E60" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
         <v>10</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="E61" s="5">
         <v>3</v>
@@ -1848,211 +1933,222 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E62" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E63" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E64" s="5">
+        <v>3</v>
+      </c>
+      <c r="F64" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E65" s="5">
+        <v>3</v>
+      </c>
+      <c r="G65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>90</v>
+      </c>
+      <c r="C66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E66" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>90</v>
+      </c>
+      <c r="C67" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E67" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E68" s="5">
+        <v>3</v>
+      </c>
+      <c r="F68" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E69" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E70" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E71" s="5">
+        <v>3</v>
+      </c>
+      <c r="F71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>5</v>
       </c>
-      <c r="C62" t="s">
-        <v>10</v>
-      </c>
-      <c r="D62" t="s">
-        <v>77</v>
-      </c>
-      <c r="E62" s="3">
-        <v>1</v>
-      </c>
-      <c r="F62" t="s">
-        <v>10</v>
-      </c>
-      <c r="I62" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>5</v>
-      </c>
-      <c r="C63" t="s">
-        <v>10</v>
-      </c>
-      <c r="D63" t="s">
-        <v>79</v>
-      </c>
-      <c r="E63" s="3">
-        <v>1</v>
-      </c>
-      <c r="I63" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>5</v>
-      </c>
-      <c r="C64" t="s">
-        <v>10</v>
-      </c>
-      <c r="D64" t="s">
-        <v>78</v>
-      </c>
-      <c r="E64" s="3">
-        <v>1</v>
-      </c>
-      <c r="I64" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>5</v>
-      </c>
-      <c r="C65" t="s">
-        <v>19</v>
-      </c>
-      <c r="D65" t="s">
-        <v>20</v>
-      </c>
-      <c r="E65" s="3">
-        <v>1</v>
-      </c>
-      <c r="I65" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>5</v>
-      </c>
-      <c r="C66" t="s">
-        <v>19</v>
-      </c>
-      <c r="D66" t="s">
-        <v>25</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1</v>
-      </c>
-      <c r="I66" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>5</v>
-      </c>
-      <c r="C67" t="s">
-        <v>10</v>
-      </c>
-      <c r="D67" t="s">
-        <v>80</v>
-      </c>
-      <c r="E67" s="4">
-        <v>2</v>
-      </c>
-      <c r="G67" t="s">
-        <v>10</v>
-      </c>
-      <c r="I67" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>5</v>
-      </c>
-      <c r="C68" t="s">
-        <v>19</v>
-      </c>
-      <c r="D68" t="s">
-        <v>21</v>
-      </c>
-      <c r="E68" s="4">
-        <v>2</v>
-      </c>
-      <c r="I68" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>5</v>
-      </c>
-      <c r="B69" t="s">
-        <v>87</v>
-      </c>
-      <c r="C69" t="s">
-        <v>10</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E69" s="4">
-        <v>2</v>
-      </c>
-      <c r="G69" t="s">
-        <v>10</v>
-      </c>
-      <c r="I69" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>5</v>
-      </c>
-      <c r="C70" t="s">
-        <v>10</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="C72" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" t="s">
         <v>17</v>
       </c>
-      <c r="F70" t="s">
-        <v>10</v>
-      </c>
-      <c r="G70" t="s">
+      <c r="F72" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I70">
-    <sortState ref="A11:I70">
-      <sortCondition ref="E1:E70"/>
-    </sortState>
+  <autoFilter ref="A1:K72">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="INCOMPLETE"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="D29" r:id="rId1" display=" Number of Islands"/>
-    <hyperlink ref="D45" r:id="rId2" display=" Remove Invalid Parentheses"/>
-    <hyperlink ref="D61" r:id="rId3" display=" Merge k Sorted Lists"/>
-    <hyperlink ref="D11" r:id="rId4" display=" Read N Characters Given Read4"/>
-    <hyperlink ref="D48" r:id="rId5" display=" Read N Characters Given Read4 II - Call multiple times"/>
-    <hyperlink ref="D44" r:id="rId6" display=" Task Scheduler"/>
-    <hyperlink ref="D58" r:id="rId7" display=" Integer to English Words"/>
-    <hyperlink ref="D13" r:id="rId8" display=" Minimum Size Subarray Sum"/>
-    <hyperlink ref="D33" r:id="rId9" display=" Valid Number"/>
-    <hyperlink ref="D12" r:id="rId10" display=" Maximum Size Subarray Sum Equals k"/>
-    <hyperlink ref="D32" r:id="rId11" display=" Trapping Rain Water"/>
-    <hyperlink ref="D39" r:id="rId12" display=" Flatten Binary Tree to Linked List"/>
-    <hyperlink ref="D27" r:id="rId13" display=" Binary Tree Vertical Order Traversal"/>
-    <hyperlink ref="D28" r:id="rId14" display=" Construct Binary Tree from Preorder and Inorder Traversal"/>
-    <hyperlink ref="D69" r:id="rId15" display=" Clone Graph"/>
-    <hyperlink ref="D46" r:id="rId16" display=" Wildcard Matching"/>
-    <hyperlink ref="D41" r:id="rId17" display=" Regular Expression Matching"/>
-    <hyperlink ref="D21" r:id="rId18" display=" Meeting Rooms II"/>
-    <hyperlink ref="D22" r:id="rId19" display=" Search in Rotated Sorted Array II"/>
-    <hyperlink ref="D24" r:id="rId20" display=" Smallest Range"/>
-    <hyperlink ref="D51" r:id="rId21" display=" Minimum Window Subsequence"/>
-    <hyperlink ref="D50" r:id="rId22" display=" Maximum Sum of 3 Non-Overlapping Subarrays"/>
-    <hyperlink ref="D49" r:id="rId23" display=" Serialize and Deserialize Binary Tree"/>
-    <hyperlink ref="D14" r:id="rId24" display=" Flatten Nested List Iterator"/>
-    <hyperlink ref="D23" r:id="rId25" display=" Add and Search Word - Data structure design"/>
-    <hyperlink ref="D26" r:id="rId26" display=" Binary Search Tree Iterator"/>
-    <hyperlink ref="D47" r:id="rId27" display=" LRU Cache"/>
-    <hyperlink ref="D19" r:id="rId28" display=" Sparse Matrix Multiplication"/>
-    <hyperlink ref="D20" r:id="rId29" display=" Find the Celebrity"/>
-    <hyperlink ref="D59" r:id="rId30" display=" Minimum Window Substring"/>
-    <hyperlink ref="D60" r:id="rId31" display=" Palindrome Pairs"/>
+    <hyperlink ref="D61" r:id="rId1" display=" Remove Invalid Parentheses"/>
+    <hyperlink ref="D71" r:id="rId2" display=" Merge k Sorted Lists"/>
+    <hyperlink ref="D10" r:id="rId3" display=" Read N Characters Given Read4"/>
+    <hyperlink ref="D64" r:id="rId4" display=" Read N Characters Given Read4 II - Call multiple times"/>
+    <hyperlink ref="D52" r:id="rId5" display=" Task Scheduler"/>
+    <hyperlink ref="D68" r:id="rId6" display=" Integer to English Words"/>
+    <hyperlink ref="D29" r:id="rId7" display=" Minimum Size Subarray Sum"/>
+    <hyperlink ref="D59" r:id="rId8" display=" Valid Number"/>
+    <hyperlink ref="D28" r:id="rId9" display=" Maximum Size Subarray Sum Equals k"/>
+    <hyperlink ref="D58" r:id="rId10" display=" Trapping Rain Water"/>
+    <hyperlink ref="D48" r:id="rId11" display=" Flatten Binary Tree to Linked List"/>
+    <hyperlink ref="D43" r:id="rId12" display=" Binary Tree Vertical Order Traversal"/>
+    <hyperlink ref="D44" r:id="rId13" display=" Construct Binary Tree from Preorder and Inorder Traversal"/>
+    <hyperlink ref="D57" r:id="rId14" display=" Clone Graph"/>
+    <hyperlink ref="D62" r:id="rId15" display=" Wildcard Matching"/>
+    <hyperlink ref="D60" r:id="rId16" display=" Regular Expression Matching"/>
+    <hyperlink ref="D37" r:id="rId17" display=" Meeting Rooms II"/>
+    <hyperlink ref="D38" r:id="rId18" display=" Search in Rotated Sorted Array II"/>
+    <hyperlink ref="D40" r:id="rId19" display=" Smallest Range"/>
+    <hyperlink ref="D67" r:id="rId20" display=" Minimum Window Subsequence"/>
+    <hyperlink ref="D66" r:id="rId21" display=" Maximum Sum of 3 Non-Overlapping Subarrays"/>
+    <hyperlink ref="D65" r:id="rId22" display=" Serialize and Deserialize Binary Tree"/>
+    <hyperlink ref="D30" r:id="rId23" display=" Flatten Nested List Iterator"/>
+    <hyperlink ref="D39" r:id="rId24" display=" Add and Search Word - Data structure design"/>
+    <hyperlink ref="D42" r:id="rId25" display=" Binary Search Tree Iterator"/>
+    <hyperlink ref="D63" r:id="rId26" display=" LRU Cache"/>
+    <hyperlink ref="D35" r:id="rId27" display=" Sparse Matrix Multiplication"/>
+    <hyperlink ref="D36" r:id="rId28" display=" Find the Celebrity"/>
+    <hyperlink ref="D69" r:id="rId29" display=" Minimum Window Substring"/>
+    <hyperlink ref="D70" r:id="rId30" display=" Palindrome Pairs"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId32"/>
+  <pageSetup orientation="portrait" r:id="rId31"/>
 </worksheet>
 </file>